--- a/doc/manyc/csv/采购.xlsx
+++ b/doc/manyc/csv/采购.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29517"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Gits\_ari_milicard\doc\manyc\csv\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B000CB-E8D5-4ECE-8DA3-A7BF2C4993F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="4940" yWindow="2080" windowWidth="30230" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="159">
   <si>
     <t>ID</t>
   </si>
@@ -486,22 +491,38 @@
   </si>
   <si>
     <t>2025-10-21 14:39:55</t>
+  </si>
+  <si>
+    <t>实付金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未支付金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -513,21 +534,34 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -817,19 +851,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="25" max="25" width="14" customWidth="1"/>
+    <col min="26" max="26" width="15.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -902,17 +937,17 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>23</v>
+      <c r="Y1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="AA1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1381</v>
       </c>
@@ -929,7 +964,7 @@
         <v>28</v>
       </c>
       <c r="F2">
-        <v>19440.0</v>
+        <v>19440</v>
       </c>
       <c r="G2">
         <v>49.88</v>
@@ -986,7 +1021,7 @@
         <v>4579.29</v>
       </c>
       <c r="Y2">
-        <v>4995.0</v>
+        <v>4995</v>
       </c>
       <c r="Z2">
         <v>-415.71</v>
@@ -995,7 +1030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1380</v>
       </c>
@@ -1012,7 +1047,7 @@
         <v>33</v>
       </c>
       <c r="F3">
-        <v>8208.0</v>
+        <v>8208</v>
       </c>
       <c r="G3">
         <v>122.12</v>
@@ -1048,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>10023.21</v>
+        <v>10023.209999999999</v>
       </c>
       <c r="S3">
         <v>208.81</v>
@@ -1057,7 +1092,7 @@
         <v>5.8</v>
       </c>
       <c r="U3">
-        <v>10023.21</v>
+        <v>10023.209999999999</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1066,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>10023.21</v>
+        <v>10023.209999999999</v>
       </c>
       <c r="Y3">
-        <v>10023.21</v>
+        <v>10023.209999999999</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1078,7 +1113,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1378</v>
       </c>
@@ -1095,7 +1130,7 @@
         <v>38</v>
       </c>
       <c r="F4">
-        <v>24300.0</v>
+        <v>24300</v>
       </c>
       <c r="G4">
         <v>24.32</v>
@@ -1161,7 +1196,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1371</v>
       </c>
@@ -1178,7 +1213,7 @@
         <v>44</v>
       </c>
       <c r="F5">
-        <v>22686.0</v>
+        <v>22686</v>
       </c>
       <c r="G5">
         <v>24.8</v>
@@ -1214,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>5625.0</v>
+        <v>5625</v>
       </c>
       <c r="S5">
         <v>234.37</v>
@@ -1223,7 +1258,7 @@
         <v>23.43</v>
       </c>
       <c r="U5">
-        <v>5625.0</v>
+        <v>5625</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1232,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>5625.0</v>
+        <v>5625</v>
       </c>
       <c r="Y5">
-        <v>5625.0</v>
+        <v>5625</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1244,7 +1279,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1370</v>
       </c>
@@ -1261,7 +1296,7 @@
         <v>49</v>
       </c>
       <c r="F6">
-        <v>9120.0</v>
+        <v>9120</v>
       </c>
       <c r="G6">
         <v>33.75</v>
@@ -1297,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>3078.0</v>
+        <v>3078</v>
       </c>
       <c r="S6">
         <v>64.12</v>
@@ -1327,7 +1362,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1369</v>
       </c>
@@ -1344,7 +1379,7 @@
         <v>53</v>
       </c>
       <c r="F7">
-        <v>22800.0</v>
+        <v>22800</v>
       </c>
       <c r="G7">
         <v>34.54</v>
@@ -1380,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>7875.0</v>
+        <v>7875</v>
       </c>
       <c r="S7">
         <v>328.12</v>
@@ -1410,7 +1445,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1368</v>
       </c>
@@ -1427,7 +1462,7 @@
         <v>57</v>
       </c>
       <c r="F8">
-        <v>22800.0</v>
+        <v>22800</v>
       </c>
       <c r="G8">
         <v>6.45</v>
@@ -1463,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>1470.0</v>
+        <v>1470</v>
       </c>
       <c r="S8">
         <v>61.25</v>
@@ -1484,7 +1519,7 @@
         <v>612.5</v>
       </c>
       <c r="Y8">
-        <v>2835.0</v>
+        <v>2835</v>
       </c>
       <c r="Z8">
         <v>-2222.5</v>
@@ -1493,7 +1528,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1367</v>
       </c>
@@ -1510,7 +1545,7 @@
         <v>61</v>
       </c>
       <c r="F9">
-        <v>22800.0</v>
+        <v>22800</v>
       </c>
       <c r="G9">
         <v>4.34</v>
@@ -1546,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>990.0</v>
+        <v>990</v>
       </c>
       <c r="S9">
         <v>41.25</v>
@@ -1555,28 +1590,28 @@
         <v>4.12</v>
       </c>
       <c r="U9">
-        <v>990.0</v>
+        <v>990</v>
       </c>
       <c r="V9">
-        <v>660.0</v>
+        <v>660</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>1650.0</v>
+        <v>1650</v>
       </c>
       <c r="Y9">
-        <v>2880.0</v>
+        <v>2880</v>
       </c>
       <c r="Z9">
-        <v>-1230.0</v>
+        <v>-1230</v>
       </c>
       <c r="AA9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1366</v>
       </c>
@@ -1593,7 +1628,7 @@
         <v>65</v>
       </c>
       <c r="F10">
-        <v>11400.0</v>
+        <v>11400</v>
       </c>
       <c r="G10">
         <v>37.89</v>
@@ -1629,28 +1664,28 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>4320.0</v>
+        <v>4320</v>
       </c>
       <c r="S10">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="T10">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>630.0</v>
+        <v>630</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>630.0</v>
+        <v>630</v>
       </c>
       <c r="Y10">
-        <v>630.0</v>
+        <v>630</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1659,7 +1694,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1353</v>
       </c>
@@ -1676,7 +1711,7 @@
         <v>69</v>
       </c>
       <c r="F11">
-        <v>23598.0</v>
+        <v>23598</v>
       </c>
       <c r="G11">
         <v>10.3</v>
@@ -1712,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>2430.0</v>
+        <v>2430</v>
       </c>
       <c r="S11">
         <v>67.5</v>
@@ -1742,7 +1777,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1340</v>
       </c>
@@ -1759,7 +1794,7 @@
         <v>73</v>
       </c>
       <c r="F12">
-        <v>44460.0</v>
+        <v>44460</v>
       </c>
       <c r="G12">
         <v>14.51</v>
@@ -1795,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>6453.0</v>
+        <v>6453</v>
       </c>
       <c r="S12">
         <v>358.5</v>
@@ -1804,28 +1839,28 @@
         <v>35.85</v>
       </c>
       <c r="U12">
-        <v>6453.0</v>
+        <v>6453</v>
       </c>
       <c r="V12">
-        <v>4302.0</v>
+        <v>4302</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>10755.0</v>
+        <v>10755</v>
       </c>
       <c r="Y12">
-        <v>10665.0</v>
+        <v>10665</v>
       </c>
       <c r="Z12">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="AA12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1339</v>
       </c>
@@ -1842,7 +1877,7 @@
         <v>77</v>
       </c>
       <c r="F13">
-        <v>22686.0</v>
+        <v>22686</v>
       </c>
       <c r="G13">
         <v>22.02</v>
@@ -1878,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>4995.0</v>
+        <v>4995</v>
       </c>
       <c r="S13">
         <v>138.75</v>
@@ -1887,7 +1922,7 @@
         <v>13.87</v>
       </c>
       <c r="U13">
-        <v>4995.0</v>
+        <v>4995</v>
       </c>
       <c r="V13">
         <v>1387.5</v>
@@ -1899,7 +1934,7 @@
         <v>6382.5</v>
       </c>
       <c r="Y13">
-        <v>6345.0</v>
+        <v>6345</v>
       </c>
       <c r="Z13">
         <v>37.5</v>
@@ -1908,7 +1943,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1338</v>
       </c>
@@ -1925,7 +1960,7 @@
         <v>81</v>
       </c>
       <c r="F14">
-        <v>30780.0</v>
+        <v>30780</v>
       </c>
       <c r="G14">
         <v>15.63</v>
@@ -1961,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>4811.4</v>
+        <v>4811.3999999999996</v>
       </c>
       <c r="S14">
         <v>133.65</v>
@@ -1991,7 +2026,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1337</v>
       </c>
@@ -2008,7 +2043,7 @@
         <v>86</v>
       </c>
       <c r="F15">
-        <v>24795.0</v>
+        <v>24795</v>
       </c>
       <c r="G15">
         <v>13.59</v>
@@ -2074,7 +2109,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1336</v>
       </c>
@@ -2091,7 +2126,7 @@
         <v>90</v>
       </c>
       <c r="F16">
-        <v>23598.0</v>
+        <v>23598</v>
       </c>
       <c r="G16">
         <v>9.52</v>
@@ -2157,7 +2192,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1334</v>
       </c>
@@ -2240,7 +2275,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1333</v>
       </c>
@@ -2323,7 +2358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1332</v>
       </c>
@@ -2340,10 +2375,10 @@
         <v>103</v>
       </c>
       <c r="F19">
-        <v>11343.0</v>
+        <v>11343</v>
       </c>
       <c r="G19">
-        <v>20.15</v>
+        <v>20.149999999999999</v>
       </c>
       <c r="H19" t="s">
         <v>45</v>
@@ -2376,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>2286.0</v>
+        <v>2286</v>
       </c>
       <c r="S19">
         <v>95.25</v>
@@ -2385,7 +2420,7 @@
         <v>19.05</v>
       </c>
       <c r="U19">
-        <v>4572.0</v>
+        <v>4572</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2394,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="X19">
-        <v>4572.0</v>
+        <v>4572</v>
       </c>
       <c r="Y19">
-        <v>4572.0</v>
+        <v>4572</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2406,7 +2441,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1331</v>
       </c>
@@ -2423,7 +2458,7 @@
         <v>107</v>
       </c>
       <c r="F20">
-        <v>21890.0</v>
+        <v>21890</v>
       </c>
       <c r="G20">
         <v>10.36</v>
@@ -2459,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>2268.0</v>
+        <v>2268</v>
       </c>
       <c r="S20">
         <v>103.09</v>
@@ -2468,7 +2503,7 @@
         <v>20.61</v>
       </c>
       <c r="U20">
-        <v>2268.0</v>
+        <v>2268</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2477,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>2268.0</v>
+        <v>2268</v>
       </c>
       <c r="Y20">
-        <v>2268.0</v>
+        <v>2268</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2489,7 +2524,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1330</v>
       </c>
@@ -2548,7 +2583,7 @@
         <v>215.7</v>
       </c>
       <c r="T21">
-        <v>35.95</v>
+        <v>35.950000000000003</v>
       </c>
       <c r="U21">
         <v>3235.5</v>
@@ -2572,7 +2607,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1329</v>
       </c>
@@ -2655,7 +2690,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1312</v>
       </c>
@@ -2672,7 +2707,7 @@
         <v>121</v>
       </c>
       <c r="F23">
-        <v>12960.0</v>
+        <v>12960</v>
       </c>
       <c r="G23">
         <v>34.5</v>
@@ -2714,7 +2749,7 @@
         <v>124.18</v>
       </c>
       <c r="T23">
-        <v>9.55</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="U23">
         <v>8941.5</v>
@@ -2738,7 +2773,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1311</v>
       </c>
@@ -2755,10 +2790,10 @@
         <v>126</v>
       </c>
       <c r="F24">
-        <v>13680.0</v>
+        <v>13680</v>
       </c>
       <c r="G24">
-        <v>36.63</v>
+        <v>36.630000000000003</v>
       </c>
       <c r="H24" t="s">
         <v>45</v>
@@ -2821,7 +2856,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1310</v>
       </c>
@@ -2838,7 +2873,7 @@
         <v>130</v>
       </c>
       <c r="F25">
-        <v>12960.0</v>
+        <v>12960</v>
       </c>
       <c r="G25">
         <v>18.87</v>
@@ -2904,7 +2939,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1275</v>
       </c>
@@ -2921,7 +2956,7 @@
         <v>135</v>
       </c>
       <c r="F26">
-        <v>20736.0</v>
+        <v>20736</v>
       </c>
       <c r="G26">
         <v>18.88</v>
@@ -2957,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>3915.0</v>
+        <v>3915</v>
       </c>
       <c r="S26">
         <v>108.75</v>
@@ -2966,7 +3001,7 @@
         <v>8.36</v>
       </c>
       <c r="U26">
-        <v>3915.0</v>
+        <v>3915</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2975,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="X26">
-        <v>3915.0</v>
+        <v>3915</v>
       </c>
       <c r="Y26">
-        <v>3915.0</v>
+        <v>3915</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -2987,7 +3022,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1240</v>
       </c>
@@ -3070,7 +3105,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1239</v>
       </c>
@@ -3087,7 +3122,7 @@
         <v>107</v>
       </c>
       <c r="F28">
-        <v>21890.0</v>
+        <v>21890</v>
       </c>
       <c r="G28">
         <v>11.52</v>
@@ -3153,7 +3188,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1238</v>
       </c>
@@ -3170,7 +3205,7 @@
         <v>148</v>
       </c>
       <c r="F29">
-        <v>16038.0</v>
+        <v>16038</v>
       </c>
       <c r="G29">
         <v>16.25</v>
@@ -3209,7 +3244,7 @@
         <v>2606.4</v>
       </c>
       <c r="S29">
-        <v>72.4</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="T29">
         <v>5.56</v>
@@ -3236,7 +3271,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1237</v>
       </c>
@@ -3253,7 +3288,7 @@
         <v>152</v>
       </c>
       <c r="F30">
-        <v>52974.0</v>
+        <v>52974</v>
       </c>
       <c r="G30">
         <v>5.87</v>
@@ -3319,7 +3354,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1236</v>
       </c>
@@ -3336,7 +3371,7 @@
         <v>121</v>
       </c>
       <c r="F31">
-        <v>12960.0</v>
+        <v>12960</v>
       </c>
       <c r="G31">
         <v>9.59</v>
@@ -3378,7 +3413,7 @@
         <v>110.96</v>
       </c>
       <c r="T31">
-        <v>8.53</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="U31">
         <v>3994.65</v>
@@ -3403,18 +3438,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>